--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B33872-FFA3-4E05-84B3-312563F0B21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD43D98-3C2B-4CB7-B8A7-8AB8FA814027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD43D98-3C2B-4CB7-B8A7-8AB8FA814027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683E2CC-8551-41D6-9F3D-FF086D5955F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,14 +506,14 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683E2CC-8551-41D6-9F3D-FF086D5955F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A36CB-F766-4790-9348-DACA5D1F5622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,14 +506,14 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A36CB-F766-4790-9348-DACA5D1F5622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040C5BA-EB15-4BC2-898C-4AE2C26B0915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,14 +506,14 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,15 +530,15 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040C5BA-EB15-4BC2-898C-4AE2C26B0915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAF010-78E7-480A-9827-35CC576448F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,19 +526,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAF010-78E7-480A-9827-35CC576448F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7DA1C-1FB4-452F-B83E-C3A5A48D6009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,14 +506,14 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7DA1C-1FB4-452F-B83E-C3A5A48D6009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B671991-6E67-4052-ABD2-BDFD14666410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,14 +506,14 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B671991-6E67-4052-ABD2-BDFD14666410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7A4A9-3825-401C-B13C-31EC4F3ED5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,14 +506,14 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7A4A9-3825-401C-B13C-31EC4F3ED5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE12AC-D87A-451A-8126-A2C5617278D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,14 +506,14 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,15 +530,15 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE12AC-D87A-451A-8126-A2C5617278D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA5F56-2331-4B0B-974E-D91FE949B938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,19 +526,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA5F56-2331-4B0B-974E-D91FE949B938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A51542-3CC0-4147-8F4B-1C55E583F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,11 +509,11 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,11 +534,11 @@
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A51542-3CC0-4147-8F4B-1C55E583F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32344673-D0E9-4235-BE39-4DAF1F6DA076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,11 +509,11 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,11 +534,11 @@
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32344673-D0E9-4235-BE39-4DAF1F6DA076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5178F89E-28DB-4911-A6B7-C86B2C813994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,14 +506,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,15 +530,15 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5178F89E-28DB-4911-A6B7-C86B2C813994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EDF09-B14C-4DFA-8856-32E0941CD160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,14 +464,14 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,14 +506,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>16</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EDF09-B14C-4DFA-8856-32E0941CD160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0925C-E574-4EA0-BB6A-618C8C029366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,17 +461,17 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -509,11 +509,11 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,19 +526,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0925C-E574-4EA0-BB6A-618C8C029366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910FEFC-D72D-4C1D-8B23-D11902F576F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12672" yWindow="2124" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,14 +464,14 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,14 +506,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,15 +530,15 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910FEFC-D72D-4C1D-8B23-D11902F576F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5833CBF-94F5-462E-BFD5-62EA636561C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12672" yWindow="2124" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,14 +506,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,15 +530,15 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5833CBF-94F5-462E-BFD5-62EA636561C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3621D6-EF83-4889-9664-EB67915911CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11316" yWindow="2676" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,14 +464,14 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,19 +526,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3621D6-EF83-4889-9664-EB67915911CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51751729-25A1-4CDA-A2CD-C507A2F77F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11316" yWindow="2676" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,19 +526,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51751729-25A1-4CDA-A2CD-C507A2F77F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76525BE-8917-4C7C-83EA-5C5EB1125E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,11 +526,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76525BE-8917-4C7C-83EA-5C5EB1125E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A68ED-0423-4DCC-8B91-806C4CA0CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10308" yWindow="3528" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,11 +526,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A68ED-0423-4DCC-8B91-806C4CA0CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4023FD5E-95AA-42BB-B430-6405CACA6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10308" yWindow="3528" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12852" yWindow="996" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,17 +503,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,11 +526,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +538,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4023FD5E-95AA-42BB-B430-6405CACA6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876C160-F16A-4D46-B756-C5CABB688CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12852" yWindow="996" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="2004" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -423,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,17 +506,17 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,11 +529,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -538,7 +541,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876C160-F16A-4D46-B756-C5CABB688CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC342D84-EC13-4A21-AA46-45959BB64BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2004" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13404" yWindow="2160" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -427,7 +416,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,17 +453,17 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -509,14 +498,14 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -529,11 +518,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
@@ -541,7 +530,7 @@
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Count.xlsx
+++ b/Problem Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC342D84-EC13-4A21-AA46-45959BB64BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C250FAA9-D894-46DD-B03C-9F05C96B7682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13404" yWindow="2160" windowWidth="11736" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,11 +459,11 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -501,11 +501,11 @@
         <v>74</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,11 +526,11 @@
       </c>
       <c r="E6" s="4">
         <f>SUM(E2:E5)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <f>SUM(B6:E6)</f>
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
